--- a/file_checks/correct_genes_rogue_pheno.xlsx
+++ b/file_checks/correct_genes_rogue_pheno.xlsx
@@ -566,508 +566,508 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.00469645262029515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50588525491601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3210513117394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.250299695491973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.63844724617607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.525696837481116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.097959327169937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25729149313543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.885787934416836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.74822336788318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33172603372837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.118916739041281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.534386964309242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.853355313691634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.955718481945337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.843887176308683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.808966683138627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1575026184078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.704298411895813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.23536411033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79276124867071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0674834268407815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.761951026622391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.691335216539902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.132682049514683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.750822632454099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.918764829736701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.829920448382612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72715077263793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.02910673772805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.944877746905143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.74790278101412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.708247344211318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.588122170596727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.106447246717183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689866328676798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.775616478552088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93372672472393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.72680872889617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.06775163091115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39427025516493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.889013668101812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.285663767658867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.884927589085484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.87830215503689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0796458135565591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00185606744635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.961553019754466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.388013918769936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90210199762043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.190381734478307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.530263850252678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.657230243874935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.450287270337195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.705193520969093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01506413463851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2821415506677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.92943030869353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.190465107592599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11909236357507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.769759921215636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400577441736423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.725286847090047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15342649371383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319693345751076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.372532736673803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.445542988277457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.700557430046891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.378439084377297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.492009414910726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.983136144770804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0446767445664699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43688561107134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.605754467475789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.556664167438541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0415073704290491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.264645524835333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06442523044184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.991770298708355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.262755779196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.323534259717073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.149698660379987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47567803559139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.105377935173303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.308818531472834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.22586651963737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.240369325265906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.365034977562764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471248831634213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.614424719686145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27591392822969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.356796121021704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.175342502595563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.485858952205467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85902860451232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16882451512954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.613207065390589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.149432594156691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.761527086895699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.69803698780352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.548605354052556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38385677484614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25158997997638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.15628893620568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0208288151159845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.400628680798966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.99387053946275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0423382635754657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.807590974162904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.88390561388588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33865916990587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.410338848681893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.960219086544399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.596202122014425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.870342709167271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.170895151055372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.998484744956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33790997961118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.424005300711012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.574916174260592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.913840658589943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.759194282543304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30527437538015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.241836775877057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.938182098545533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.42111540703435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0395790553542104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129907052664654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10061516060701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.533497428683055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.523980214656594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0990727624790903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.814871557978275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30881916156023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.233927340733826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.757857459664264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.317033620648792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.354065994416829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.989525380183059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11779450109232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50033437184286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0285401647154232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.31967968176684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.584942299948842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.04453699651998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.887172026103214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.505329353715507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.144905379923492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08434329191992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50821324037851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.194298256748873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.129116984350202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.928675174424699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.769239587686375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.24139170413138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.140324428469974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.782606247524071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40421660440279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.23885660659963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583853085344235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00586142746432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.759568868510452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714265170864129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.405934379879209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.524730288129277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0267857837174771</t>
+    <t xml:space="preserve">1.4310081002026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0500912406790018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.08812251814753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.302750024158647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.796135576530806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693147694613094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208640316632753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.05093566047357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.273012594164588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0435896364712643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.122879541109792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.275498938261654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0388182940409039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.03842858721505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186940165631158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.327860994748283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0140100540770437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.586216658917061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.149464105411294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.33464237574374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.345472733597968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.66749515762796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.511246813921118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10326018432146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.212768557253405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.492454557443824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686159882520307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.80209705241574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.785710784181003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.17357726787153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.834677095049719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0898397726953858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00307435905287289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.508049869553731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12592835177504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.652690052152407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5690969872434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719943225696945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.492063994801937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.213170348935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.140332204076801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00460840635693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39408243003299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298895129608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.183970797663726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.42346250942285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23915702612631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.220779170893177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.405734094342037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.862944208333448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0356197980286264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.432467969324996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.4645135112555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.325170219271874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09889634908895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39023208286293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0676600366379825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488606168332957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.588961972207925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40177168667053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988471792230786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29231106220988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62333204929378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.597544936708527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.242823380141104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3217861219193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271364509092907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.675435314446185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22174547273384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.387413408259952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.728162596228404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44913286638694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.77615889861399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.271649488308364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10788965398432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.394877825402846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253742064697614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0993717500705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46684581871776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531113036022499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.580080841367345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10973639150929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453305712508411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.850141966171693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7537712966899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.598724707800458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.658310711320567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.516688414017805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.563830834834658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.235816864336858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74088454974821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.77331271403773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.341302216921788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42094358670795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788391269913267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.510080760355748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20476248002687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.54298283659188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470233792445211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0504380990656841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.364030093979382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234999385660174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.429160657356742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.980235160131397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.298076650745006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3243854316062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.478161645805143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468739465578431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158639110098234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.451649150942306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.241939507104836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.642561727128652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.474079795772422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31210179414984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.428388981885618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.202744467645079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79073748016319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.444819771319848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78764952770796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.08800364272938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.7822484998022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0569359288297635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11334524064273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.91885020892806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988826536680574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.896859059099949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.249313582217358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286163959824684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83846608788158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35971526285526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.100763581270537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133293672637382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25470184434053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.78213095154498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.256354285505521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.6270038642349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.988481171883209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.170550533404134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.607787186588576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.957961817055955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.431187655470959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.532886249175716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2146105759313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150708645663633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23652319214597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.637835883207232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286728475083626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.383814004644564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25506502180096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66323195571043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0272338843441903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.360040346532614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975672273069351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.929548042422539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.282624312957012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501683211988934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.595817768691378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919169377067884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.279658193587895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.177020811668167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161296452805167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.116905230083418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.502788260012053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23518982164512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82796173708837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.171280076238968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">Aris</t>
@@ -2459,34 +2459,34 @@
         <v>350</v>
       </c>
       <c r="FL2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FM2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FN2" t="s">
         <v>351</v>
       </c>
       <c r="FO2" t="s">
+        <v>351</v>
+      </c>
+      <c r="FP2" t="s">
         <v>350</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FQ2" t="s">
         <v>351</v>
       </c>
-      <c r="FQ2" t="s">
-        <v>350</v>
-      </c>
       <c r="FR2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FS2" t="s">
         <v>350</v>
       </c>
       <c r="FT2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FU2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FV2" t="s">
         <v>350</v>
@@ -2495,10 +2495,10 @@
         <v>351</v>
       </c>
       <c r="FX2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FY2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="FZ2" t="s">
         <v>350</v>

--- a/file_checks/correct_genes_rogue_pheno.xlsx
+++ b/file_checks/correct_genes_rogue_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">1017</t>
   </si>
@@ -563,511 +563,520 @@
     <t xml:space="preserve">rorS_risk_high</t>
   </si>
   <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4310081002026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0500912406790018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.08812251814753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.302750024158647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.796135576530806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693147694613094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208640316632753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.05093566047357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.273012594164588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0435896364712643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.122879541109792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.275498938261654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0388182940409039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03842858721505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186940165631158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.327860994748283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0140100540770437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.586216658917061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.149464105411294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.33464237574374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.345472733597968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.66749515762796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.511246813921118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.10326018432146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.212768557253405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.492454557443824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.686159882520307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.80209705241574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.785710784181003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.17357726787153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.834677095049719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0898397726953858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00307435905287289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.508049869553731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12592835177504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.652690052152407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5690969872434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719943225696945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.492063994801937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.213170348935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.140332204076801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00460840635693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39408243003299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298895129608826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.183970797663726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.42346250942285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23915702612631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.220779170893177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.405734094342037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.862944208333448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0356197980286264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.432467969324996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4645135112555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325170219271874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09889634908895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39023208286293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0676600366379825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488606168332957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.588961972207925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40177168667053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988471792230786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29231106220988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62333204929378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.597544936708527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.242823380141104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3217861219193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271364509092907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.675435314446185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22174547273384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.387413408259952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.728162596228404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44913286638694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.77615889861399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.271649488308364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10788965398432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.394877825402846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.253742064697614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0993717500705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46684581871776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.531113036022499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.580080841367345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10973639150929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.453305712508411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.850141966171693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7537712966899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.598724707800458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.658310711320567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.516688414017805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.563830834834658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.235816864336858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74088454974821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.77331271403773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.341302216921788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42094358670795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788391269913267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.510080760355748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20476248002687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.54298283659188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470233792445211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0504380990656841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.364030093979382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234999385660174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.429160657356742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.980235160131397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.298076650745006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3243854316062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.478161645805143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468739465578431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158639110098234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.451649150942306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.241939507104836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.642561727128652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.474079795772422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31210179414984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.428388981885618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.202744467645079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79073748016319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.444819771319848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78764952770796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.08800364272938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.7822484998022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0569359288297635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11334524064273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.91885020892806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988826536680574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.896859059099949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.249313582217358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.286163959824684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83846608788158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35971526285526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.100763581270537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133293672637382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25470184434053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.78213095154498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.256354285505521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.6270038642349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.988481171883209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.170550533404134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.607787186588576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.957961817055955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.431187655470959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.532886249175716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2146105759313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150708645663633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.23652319214597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.637835883207232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.286728475083626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.383814004644564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25506502180096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66323195571043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0272338843441903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.360040346532614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.975672273069351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.929548042422539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282624312957012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501683211988934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.595817768691378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919169377067884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.279658193587895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.177020811668167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161296452805167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.116905230083418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.502788260012053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23518982164512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82796173708837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.171280076238968</t>
+    <t xml:space="preserve">-0.352621782206598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.764302608306331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.907613360288215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.291236046007062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0977949045059173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03216498374519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.19319136293638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.137814376177152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.846372404072458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.177877052167061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.941085690088799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.295203549260876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.600474438719413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.20670210830571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.198191085056996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.23496017695519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.86105885108861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28189721144747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.431064456282307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80319015635104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40616334916566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.787167173009867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00001665199676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.01938845676055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127031176702769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.152409781138228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03337534752944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.759506454804931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.27010869670488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.874931180387244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.165398525101863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48541264188539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.250675797785326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.760445337193817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.183228432729613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161249444417366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.259717574310587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14553999423496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.192006053065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.296481996447398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0705259225448524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188587896483866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3835090179972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0206423609795859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15108391310304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.42798143938407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.137141426072427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.651066187904118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.199679384257975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.649658665373643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467030560586362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.22923024168205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.687273001571889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.870413175759186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42609265441551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.80193341662374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.910683159848537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.714730762482425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25001011697398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.693770422495379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.544952748045022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103187355098786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.554401608988675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.03091304663358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.947664106902768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.403524384374001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.762812740941711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.718889428807273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01740502875265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6777528408628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.191861258702735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.60395519812819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.965145845166793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.145892237699397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.121538061956408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39076501659589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0484507251774893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13503709058587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.243141709392667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.127248650377843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.565972828982389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30921064689967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45813772072196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16016291326086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.470389933405995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.933927542338955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.274089144503262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.447956099021457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22262729720782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25392329693704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30792801209951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023210812119522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.491480050549728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.868399592229956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.121206773496182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132226333599745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.971876774522015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.879132232618917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03719775891595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.257159336332856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671370873416505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.95254507807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.206552344441491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.160789831571151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.289734086475819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54367601752363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80650158510773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.14764692367056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.543954468380802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.514282512895694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07806617297158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.703829094571385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678641538832666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.405011015407547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.149628108485928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17658744899918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.954813597468158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.932002233861895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.62333733984412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22829852817745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.871891145904969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0146203469081266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.286481262408215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.867980927551005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.581802089760011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.302576603736976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.52887590094119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0669724371851254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.500213764756422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.546936784339267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.646419471138227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.838759459605428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.389802467781324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.444483152209912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.161063905513482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298552111508788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12343606436002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.827062812250771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43544852678907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.583550019822361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.675750939230391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.87907936613511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.243157146065111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.92847973261514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07979931632449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.27814380230376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0411175690089248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139119083111679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09177079514062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.977035552378689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.394855600800911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13575584973265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.662345499887694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.3843116243638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12135584848109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.24592336298655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.573515382822986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.280858476620382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75701170452386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.403548790845287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.62774914733715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534985886102399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.66148122997755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61488118947557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.101117516150552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.816063772989687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">Aris</t>
@@ -1955,559 +1964,577 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FM2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FN2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FO2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FP2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FQ2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FR2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FS2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FT2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FU2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FV2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FW2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FX2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FZ2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="GA2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GB2" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>354</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>354</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/correct_genes_rogue_pheno.xlsx
+++ b/file_checks/correct_genes_rogue_pheno.xlsx
@@ -575,502 +575,502 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.352621782206598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764302608306331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.907613360288215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291236046007062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0977949045059173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03216498374519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.19319136293638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.137814376177152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.846372404072458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.177877052167061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.941085690088799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.295203549260876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.600474438719413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.20670210830571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.198191085056996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.23496017695519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.86105885108861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28189721144747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.431064456282307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80319015635104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40616334916566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.787167173009867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00001665199676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.01938845676055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127031176702769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.152409781138228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03337534752944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.759506454804931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.27010869670488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.874931180387244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.165398525101863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48541264188539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.250675797785326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.760445337193817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.183228432729613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161249444417366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.259717574310587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14553999423496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.192006053065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.296481996447398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0705259225448524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188587896483866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3835090179972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0206423609795859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15108391310304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.42798143938407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.137141426072427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.651066187904118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.199679384257975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.649658665373643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.467030560586362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.22923024168205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.687273001571889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.870413175759186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42609265441551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.80193341662374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.910683159848537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.714730762482425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25001011697398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.693770422495379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.544952748045022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103187355098786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.554401608988675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.03091304663358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.947664106902768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.403524384374001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.762812740941711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.718889428807273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01740502875265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6777528408628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.191861258702735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.60395519812819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.965145845166793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.145892237699397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.121538061956408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39076501659589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0484507251774893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13503709058587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.243141709392667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.127248650377843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.565972828982389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30921064689967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45813772072196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16016291326086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.470389933405995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.933927542338955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.274089144503262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.447956099021457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22262729720782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.25392329693704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30792801209951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023210812119522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.491480050549728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.868399592229956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.121206773496182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132226333599745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.971876774522015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.879132232618917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03719775891595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.257159336332856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.671370873416505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.95254507807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.206552344441491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.160789831571151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.289734086475819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54367601752363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80650158510773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.14764692367056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.543954468380802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.514282512895694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07806617297158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.703829094571385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678641538832666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.405011015407547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.149628108485928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17658744899918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.954813597468158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.932002233861895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.62333733984412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22829852817745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.871891145904969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0146203469081266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.286481262408215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.867980927551005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.581802089760011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.302576603736976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.52887590094119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0669724371851254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.500213764756422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.546936784339267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646419471138227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838759459605428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.389802467781324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.444483152209912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.161063905513482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.298552111508788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12343606436002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.827062812250771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43544852678907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.583550019822361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.675750939230391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.87907936613511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.243157146065111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.92847973261514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.07979931632449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.27814380230376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0411175690089248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139119083111679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09177079514062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.977035552378689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.394855600800911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.13575584973265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.662345499887694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.3843116243638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12135584848109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.24592336298655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.573515382822986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.280858476620382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75701170452386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.403548790845287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.62774914733715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.534985886102399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.66148122997755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61488118947557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.101117516150552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.816063772989687</t>
+    <t xml:space="preserve">-0.707661075104444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17631576223943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.080041368948225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28469590806654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810032451962597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.457284006926962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909701822513258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.958782033559991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.193002144808336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39361509358224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.728225540470575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.331580299145558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.63800964937613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.355327202609089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.649159806117267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0756466961936015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.891222375442888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0398761179418663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397491625538937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.25521938970153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.247114889129881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10464887481355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03671191544376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0783575895837252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27576553422653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.43140697311391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26401685968899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.86825973542516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680016651219803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10038556366316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.857473041192023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.827448092988823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.910097459482065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9216230871312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.139466153886459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.490942691888318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.507932754654106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.533587310555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.79656567384874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230644917370424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182786502869451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.849656236454805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.229667586046862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.940919700548982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60641114769783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.456704838958015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303970871235939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.68118734632079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47830299851682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.408506187484791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.366563147553347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.83380596556202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53755229045223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.36711457305254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00989463601971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22705071727677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.456950724425982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98734824464802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19521617853693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88293058499669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471217680370875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.940896074267318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.315294123941474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.225408188189997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.66212011823671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31798030334817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6658562121871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29607825215613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.83003413060626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5805220673601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.588877438782247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.553953740650392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.791612452431566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.197957186064636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0736348936163977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.20702826018766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.77977066957154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.284179914519115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.51413206879079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40462912460426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.904493113235503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.053301685419083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27140554599259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.88888095169422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.27959915990545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.165595487695313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.470200894826964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16484564476084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.3833573881432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.861418787056714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.112865812341941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691296257842921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.49805865446356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.772896531500354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15589895139544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.654144664435318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.525826345208419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0690563497838877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271315606753106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.286000555674262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.449912089148164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1177227425289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.30017582499729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.474159375050691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.17263705854485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0430259854856188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16640960984118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.29181565229997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.779056563474687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20565425001228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00725906525000726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.852514926559023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.249634861647354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.208728920925971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.7461748160637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.240904891602511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.253378556270341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18933447752112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.885800126630478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0981243984158736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50189592477683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.636966708432943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.379856826842001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663736332474224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158179246230742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.276144728464561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.718940767838276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.137853114684191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.420074071289975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.68406359216094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128797956353636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.50065839912728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817097430386762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.184239089819107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.32483481935951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48467243541883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.482276747113546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.59087911810608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.48259500616272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.198801472354136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04992668376344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.612758533382245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41045556217835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6930388621981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.01148154328187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.236353041177715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25912655871438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.762079107248421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328554694516302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.20644719056958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.00829438584557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0431854523602307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27283627407935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.138413200295291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.232212290279346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.125406199331213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00982728519047322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30217912091005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2937388699803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.64906761755793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.913493957400064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.381637709817921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.877258407711743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.794021808400593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.875171843014752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230016743245226</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -2486,31 +2486,31 @@
         <v>354</v>
       </c>
       <c r="FO2" t="s">
+        <v>354</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>354</v>
+      </c>
+      <c r="FQ2" t="s">
         <v>353</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>353</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>354</v>
       </c>
       <c r="FR2" t="s">
         <v>353</v>
       </c>
       <c r="FS2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FT2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FU2" t="s">
         <v>353</v>
       </c>
       <c r="FV2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FW2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FX2" t="s">
         <v>354</v>
@@ -2519,19 +2519,19 @@
         <v>354</v>
       </c>
       <c r="FZ2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GA2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GB2" t="s">
         <v>353</v>
       </c>
       <c r="GC2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GD2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GE2" t="s">
         <v>355</v>
